--- a/espacializacao_hoteis/hoteis_categorias.xlsx
+++ b/espacializacao_hoteis/hoteis_categorias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\Meu Drive\Orientacoes_de_alunos [TURISMO]\2024.2\VINICIUS HENRIQUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TERRA\JAVA\dio-java-basico\TCC\espacializacao_hoteis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF350AF-92B4-46F4-841F-8779CBD83281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D930BC2-ED92-4001-B735-1CE2A582EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>Vela_Branca</t>
   </si>
   <si>
-    <t>Rede_Andrade_Navegantes_Praia</t>
-  </si>
-  <si>
     <t>categoria</t>
+  </si>
+  <si>
+    <t>Rede_Andrade_Navegantes</t>
   </si>
 </sst>
 </file>
@@ -480,24 +480,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -513,12 +513,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -526,22 +529,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -549,47 +561,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -597,42 +633,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -640,27 +697,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
